--- a/ottensmann-stoffel-hoffman/Supplementary-A/data/Bumblebee.xlsx
+++ b/ottensmann-stoffel-hoffman/Supplementary-A/data/Bumblebee.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6924" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6924" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BBIM" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,15 @@
     <sheet name="BEPH" sheetId="2" r:id="rId3"/>
     <sheet name="BEPH_MS" sheetId="5" r:id="rId4"/>
     <sheet name="BFLA" sheetId="3" r:id="rId5"/>
-    <sheet name="BFLA_MS" sheetId="6" r:id="rId6"/>
+    <sheet name="bfla_ms" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="bbim" localSheetId="0">BBIM!$A$1:$BT$92</definedName>
-    <definedName name="bbim_ms_1" localSheetId="1">BBIM_MS!$A$1:$Z$34</definedName>
+    <definedName name="bbim_ms_1" localSheetId="1">BBIM_MS!$A$1:$Z$33</definedName>
     <definedName name="beph" localSheetId="2">BEPH!$A$1:$BH$81</definedName>
     <definedName name="beph_ms" localSheetId="3">BEPH_MS!$A$1:$V$43</definedName>
     <definedName name="bfla" localSheetId="4">BFLA!$A$1:$AG$60</definedName>
-    <definedName name="bfla_ms" localSheetId="5">BFLA_MS!$A$1:$M$54</definedName>
+    <definedName name="bfla_ms" localSheetId="5">bfla_ms!$A$1:$M$54</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -304,7 +304,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="145">
   <si>
     <t>BBIM01</t>
   </si>
@@ -654,9 +654,6 @@
     <t>Heptacosene III</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Heptacosane</t>
   </si>
   <si>
@@ -729,9 +726,6 @@
     <t>Triacontene I</t>
   </si>
   <si>
-    <t xml:space="preserve">	476	27.483	27.478	27.485	27.48	27.478	27.477	27.485	27.481	27.481	27.487	27.483	27.487	27.483	27.484	27.487	27.49	27.486	27.492	27.487	27.487	27.485	27.485	27.486	27.487</t>
-  </si>
-  <si>
     <t>Hexadecenyl hexadecanoate</t>
   </si>
   <si>
@@ -743,11 +737,17 @@
   <si>
     <t>Octadecenoic acid octadecenyl ester</t>
   </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -777,8 +777,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -18166,15 +18167,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="7.44140625" customWidth="1"/>
@@ -18262,7 +18261,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2">
         <v>238</v>
@@ -18342,7 +18341,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3">
         <v>240</v>
@@ -18573,7 +18572,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6">
         <v>282</v>
@@ -18667,7 +18666,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8">
         <v>266</v>
@@ -18747,7 +18746,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9">
         <v>268</v>
@@ -18821,7 +18820,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10">
         <v>296</v>
@@ -19022,7 +19021,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13">
         <v>332</v>
@@ -19182,7 +19181,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15">
         <v>340</v>
@@ -19558,7 +19557,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20">
         <v>368</v>
@@ -19718,7 +19717,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22">
         <v>380</v>
@@ -19798,7 +19797,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B23">
         <v>394</v>
@@ -19872,7 +19871,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B24">
         <v>396</v>
@@ -20032,7 +20031,7 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26">
         <v>420</v>
@@ -20191,409 +20190,479 @@
       <c r="A28" t="s">
         <v>94</v>
       </c>
+      <c r="B28">
+        <v>476</v>
+      </c>
+      <c r="C28">
+        <v>27.483000000000001</v>
+      </c>
+      <c r="D28">
+        <v>27.478000000000002</v>
+      </c>
+      <c r="E28">
+        <v>27.484999999999999</v>
+      </c>
+      <c r="F28">
+        <v>27.48</v>
+      </c>
+      <c r="G28">
+        <v>27.478000000000002</v>
+      </c>
+      <c r="H28">
+        <v>27.477</v>
+      </c>
+      <c r="I28">
+        <v>27.484999999999999</v>
+      </c>
+      <c r="J28">
+        <v>27.481000000000002</v>
+      </c>
+      <c r="K28">
+        <v>27.481000000000002</v>
+      </c>
+      <c r="L28">
+        <v>27.486999999999998</v>
+      </c>
+      <c r="M28">
+        <v>27.483000000000001</v>
+      </c>
+      <c r="N28">
+        <v>27.486999999999998</v>
+      </c>
+      <c r="O28">
+        <v>27.483000000000001</v>
+      </c>
+      <c r="P28">
+        <v>27.484000000000002</v>
+      </c>
+      <c r="Q28">
+        <v>27.486999999999998</v>
+      </c>
+      <c r="R28">
+        <v>27.49</v>
+      </c>
+      <c r="S28">
+        <v>27.486000000000001</v>
+      </c>
+      <c r="T28">
+        <v>27.492000000000001</v>
+      </c>
+      <c r="U28">
+        <v>27.486999999999998</v>
+      </c>
+      <c r="V28">
+        <v>27.486999999999998</v>
+      </c>
+      <c r="W28">
+        <v>27.484999999999999</v>
+      </c>
+      <c r="X28">
+        <v>27.484999999999999</v>
+      </c>
+      <c r="Y28">
+        <v>27.486000000000001</v>
+      </c>
+      <c r="Z28">
+        <v>27.486999999999998</v>
+      </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>140</v>
+      </c>
+      <c r="B29">
+        <v>478</v>
+      </c>
+      <c r="C29">
+        <v>27.555</v>
+      </c>
+      <c r="D29">
+        <v>27.550999999999998</v>
+      </c>
+      <c r="E29">
+        <v>27.558</v>
+      </c>
+      <c r="F29">
+        <v>27.555</v>
+      </c>
+      <c r="G29">
+        <v>27.550999999999998</v>
+      </c>
+      <c r="H29">
+        <v>27.548999999999999</v>
+      </c>
+      <c r="I29">
+        <v>27.56</v>
+      </c>
+      <c r="J29">
+        <v>27.553999999999998</v>
+      </c>
+      <c r="K29">
+        <v>27.556000000000001</v>
+      </c>
+      <c r="L29">
+        <v>27.556999999999999</v>
+      </c>
+      <c r="M29">
+        <v>27.555</v>
+      </c>
+      <c r="N29">
+        <v>27.56</v>
+      </c>
+      <c r="O29">
+        <v>27.556000000000001</v>
+      </c>
+      <c r="P29">
+        <v>27.556999999999999</v>
+      </c>
+      <c r="Q29">
+        <v>27.559000000000001</v>
+      </c>
+      <c r="R29">
+        <v>27.562000000000001</v>
+      </c>
+      <c r="S29">
+        <v>27.558</v>
+      </c>
+      <c r="T29">
+        <v>27.565999999999999</v>
+      </c>
+      <c r="U29">
+        <v>27.56</v>
+      </c>
+      <c r="V29">
+        <v>27.56</v>
+      </c>
+      <c r="W29">
+        <v>27.559000000000001</v>
+      </c>
+      <c r="X29">
+        <v>27.559000000000001</v>
+      </c>
+      <c r="Y29">
+        <v>27.556999999999999</v>
+      </c>
+      <c r="Z29">
+        <v>27.56</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B30">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C30">
-        <v>27.555</v>
+        <v>27.620999999999999</v>
       </c>
       <c r="D30">
-        <v>27.550999999999998</v>
+        <v>27.617000000000001</v>
       </c>
       <c r="E30">
-        <v>27.558</v>
+        <v>27.62</v>
       </c>
       <c r="F30">
-        <v>27.555</v>
+        <v>27.620999999999999</v>
       </c>
       <c r="G30">
-        <v>27.550999999999998</v>
+        <v>27.619</v>
       </c>
       <c r="H30">
-        <v>27.548999999999999</v>
+        <v>27.617000000000001</v>
       </c>
       <c r="I30">
-        <v>27.56</v>
+        <v>27.623000000000001</v>
       </c>
       <c r="J30">
-        <v>27.553999999999998</v>
+        <v>27.622</v>
       </c>
       <c r="K30">
-        <v>27.556000000000001</v>
+        <v>27.620999999999999</v>
       </c>
       <c r="L30">
-        <v>27.556999999999999</v>
+        <v>27.622</v>
       </c>
       <c r="M30">
-        <v>27.555</v>
+        <v>27.622</v>
       </c>
       <c r="N30">
-        <v>27.56</v>
+        <v>27.623999999999999</v>
       </c>
       <c r="O30">
-        <v>27.556000000000001</v>
+        <v>27.623999999999999</v>
       </c>
       <c r="P30">
-        <v>27.556999999999999</v>
+        <v>27.623999999999999</v>
       </c>
       <c r="Q30">
-        <v>27.559000000000001</v>
+        <v>27.625</v>
       </c>
       <c r="R30">
-        <v>27.562000000000001</v>
+        <v>27.626999999999999</v>
       </c>
       <c r="S30">
-        <v>27.558</v>
+        <v>27.623999999999999</v>
       </c>
       <c r="T30">
-        <v>27.565999999999999</v>
+        <v>27.629000000000001</v>
       </c>
       <c r="U30">
-        <v>27.56</v>
+        <v>27.626999999999999</v>
       </c>
       <c r="V30">
-        <v>27.56</v>
+        <v>27.628</v>
       </c>
       <c r="W30">
-        <v>27.559000000000001</v>
+        <v>27.629000000000001</v>
       </c>
       <c r="X30">
-        <v>27.559000000000001</v>
+        <v>27.628</v>
       </c>
       <c r="Y30">
-        <v>27.556999999999999</v>
+        <v>27.628</v>
       </c>
       <c r="Z30">
-        <v>27.56</v>
+        <v>27.626999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="B31">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="C31">
-        <v>27.620999999999999</v>
+        <v>28.913</v>
       </c>
       <c r="D31">
-        <v>27.617000000000001</v>
+        <v>28.911999999999999</v>
       </c>
       <c r="E31">
-        <v>27.62</v>
+        <v>28.934000000000001</v>
       </c>
       <c r="F31">
-        <v>27.620999999999999</v>
+        <v>28.914000000000001</v>
       </c>
       <c r="G31">
-        <v>27.619</v>
+        <v>28.907</v>
       </c>
       <c r="H31">
-        <v>27.617000000000001</v>
+        <v>28.895</v>
       </c>
       <c r="I31">
-        <v>27.623000000000001</v>
+        <v>28.931999999999999</v>
       </c>
       <c r="J31">
-        <v>27.622</v>
+        <v>28.911999999999999</v>
       </c>
       <c r="K31">
-        <v>27.620999999999999</v>
+        <v>28.907</v>
       </c>
       <c r="L31">
-        <v>27.622</v>
+        <v>28.917000000000002</v>
       </c>
       <c r="M31">
-        <v>27.622</v>
+        <v>28.904</v>
       </c>
       <c r="N31">
-        <v>27.623999999999999</v>
+        <v>28.914999999999999</v>
       </c>
       <c r="O31">
-        <v>27.623999999999999</v>
+        <v>28.907</v>
       </c>
       <c r="P31">
-        <v>27.623999999999999</v>
+        <v>28.911999999999999</v>
       </c>
       <c r="Q31">
-        <v>27.625</v>
+        <v>28.917999999999999</v>
       </c>
       <c r="R31">
-        <v>27.626999999999999</v>
+        <v>28.93</v>
       </c>
       <c r="S31">
-        <v>27.623999999999999</v>
+        <v>28.917000000000002</v>
       </c>
       <c r="T31">
-        <v>27.629000000000001</v>
+        <v>28.934000000000001</v>
       </c>
       <c r="U31">
-        <v>27.626999999999999</v>
+        <v>28.917000000000002</v>
       </c>
       <c r="V31">
-        <v>27.628</v>
+        <v>28.908999999999999</v>
       </c>
       <c r="W31">
-        <v>27.629000000000001</v>
+        <v>28.91</v>
       </c>
       <c r="X31">
-        <v>27.628</v>
+        <v>28.908000000000001</v>
       </c>
       <c r="Y31">
-        <v>27.628</v>
+        <v>28.902999999999999</v>
       </c>
       <c r="Z31">
-        <v>27.626999999999999</v>
+        <v>28.914999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C32">
-        <v>28.913</v>
+        <v>28.986000000000001</v>
       </c>
       <c r="D32">
-        <v>28.911999999999999</v>
+        <v>28.981000000000002</v>
       </c>
       <c r="E32">
-        <v>28.934000000000001</v>
+        <v>29.006</v>
       </c>
       <c r="F32">
-        <v>28.914000000000001</v>
+        <v>28.986000000000001</v>
       </c>
       <c r="G32">
-        <v>28.907</v>
+        <v>28.983000000000001</v>
       </c>
       <c r="H32">
-        <v>28.895</v>
+        <v>28.972000000000001</v>
       </c>
       <c r="I32">
-        <v>28.931999999999999</v>
+        <v>29.007000000000001</v>
       </c>
       <c r="J32">
-        <v>28.911999999999999</v>
+        <v>28.986000000000001</v>
       </c>
       <c r="K32">
-        <v>28.907</v>
+        <v>28.983000000000001</v>
       </c>
       <c r="L32">
-        <v>28.917000000000002</v>
+        <v>28.984999999999999</v>
       </c>
       <c r="M32">
-        <v>28.904</v>
+        <v>28.978000000000002</v>
       </c>
       <c r="N32">
-        <v>28.914999999999999</v>
+        <v>28.986999999999998</v>
       </c>
       <c r="O32">
-        <v>28.907</v>
+        <v>28.983000000000001</v>
       </c>
       <c r="P32">
-        <v>28.911999999999999</v>
+        <v>28.986000000000001</v>
       </c>
       <c r="Q32">
-        <v>28.917999999999999</v>
+        <v>28.99</v>
       </c>
       <c r="R32">
-        <v>28.93</v>
+        <v>28.998999999999999</v>
       </c>
       <c r="S32">
-        <v>28.917000000000002</v>
+        <v>28.984999999999999</v>
       </c>
       <c r="T32">
-        <v>28.934000000000001</v>
+        <v>29.001999999999999</v>
       </c>
       <c r="U32">
-        <v>28.917000000000002</v>
+        <v>28.986999999999998</v>
       </c>
       <c r="V32">
-        <v>28.908999999999999</v>
+        <v>28.983000000000001</v>
       </c>
       <c r="W32">
-        <v>28.91</v>
+        <v>28.99</v>
       </c>
       <c r="X32">
-        <v>28.908000000000001</v>
+        <v>28.986000000000001</v>
       </c>
       <c r="Y32">
-        <v>28.902999999999999</v>
+        <v>28.986000000000001</v>
       </c>
       <c r="Z32">
-        <v>28.914999999999999</v>
+        <v>28.992000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="C33">
-        <v>28.986000000000001</v>
+        <v>30.747</v>
       </c>
       <c r="D33">
-        <v>28.981000000000002</v>
+        <v>30.739000000000001</v>
       </c>
       <c r="E33">
-        <v>29.006</v>
+        <v>30.77</v>
       </c>
       <c r="F33">
-        <v>28.986000000000001</v>
+        <v>30.75</v>
       </c>
       <c r="G33">
-        <v>28.983000000000001</v>
+        <v>30.748999999999999</v>
       </c>
       <c r="H33">
-        <v>28.972000000000001</v>
+        <v>30.728999999999999</v>
       </c>
       <c r="I33">
-        <v>29.007000000000001</v>
+        <v>30.765000000000001</v>
       </c>
       <c r="J33">
-        <v>28.986000000000001</v>
+        <v>30.754000000000001</v>
       </c>
       <c r="K33">
-        <v>28.983000000000001</v>
+        <v>30.736000000000001</v>
       </c>
       <c r="L33">
-        <v>28.984999999999999</v>
+        <v>30.734999999999999</v>
       </c>
       <c r="M33">
-        <v>28.978000000000002</v>
+        <v>30.724</v>
       </c>
       <c r="N33">
-        <v>28.986999999999998</v>
+        <v>30.734000000000002</v>
       </c>
       <c r="O33">
-        <v>28.983000000000001</v>
+        <v>30.734000000000002</v>
       </c>
       <c r="P33">
-        <v>28.986000000000001</v>
+        <v>30.742999999999999</v>
       </c>
       <c r="Q33">
-        <v>28.99</v>
+        <v>30.75</v>
       </c>
       <c r="R33">
-        <v>28.998999999999999</v>
+        <v>30.768000000000001</v>
       </c>
       <c r="S33">
-        <v>28.984999999999999</v>
+        <v>30.748999999999999</v>
       </c>
       <c r="T33">
-        <v>29.001999999999999</v>
+        <v>30.754999999999999</v>
       </c>
       <c r="U33">
-        <v>28.986999999999998</v>
+        <v>30.741</v>
       </c>
       <c r="V33">
-        <v>28.983000000000001</v>
+        <v>30.734999999999999</v>
       </c>
       <c r="W33">
-        <v>28.99</v>
+        <v>30.757999999999999</v>
       </c>
       <c r="X33">
-        <v>28.986000000000001</v>
+        <v>30.736000000000001</v>
       </c>
       <c r="Y33">
-        <v>28.986000000000001</v>
+        <v>30.739000000000001</v>
       </c>
       <c r="Z33">
-        <v>28.992000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34">
-        <v>532</v>
-      </c>
-      <c r="C34">
-        <v>30.747</v>
-      </c>
-      <c r="D34">
-        <v>30.739000000000001</v>
-      </c>
-      <c r="E34">
-        <v>30.77</v>
-      </c>
-      <c r="F34">
-        <v>30.75</v>
-      </c>
-      <c r="G34">
-        <v>30.748999999999999</v>
-      </c>
-      <c r="H34">
-        <v>30.728999999999999</v>
-      </c>
-      <c r="I34">
-        <v>30.765000000000001</v>
-      </c>
-      <c r="J34">
-        <v>30.754000000000001</v>
-      </c>
-      <c r="K34">
-        <v>30.736000000000001</v>
-      </c>
-      <c r="L34">
-        <v>30.734999999999999</v>
-      </c>
-      <c r="M34">
-        <v>30.724</v>
-      </c>
-      <c r="N34">
-        <v>30.734000000000002</v>
-      </c>
-      <c r="O34">
-        <v>30.734000000000002</v>
-      </c>
-      <c r="P34">
-        <v>30.742999999999999</v>
-      </c>
-      <c r="Q34">
-        <v>30.75</v>
-      </c>
-      <c r="R34">
-        <v>30.768000000000001</v>
-      </c>
-      <c r="S34">
-        <v>30.748999999999999</v>
-      </c>
-      <c r="T34">
-        <v>30.754999999999999</v>
-      </c>
-      <c r="U34">
-        <v>30.741</v>
-      </c>
-      <c r="V34">
-        <v>30.734999999999999</v>
-      </c>
-      <c r="W34">
-        <v>30.757999999999999</v>
-      </c>
-      <c r="X34">
-        <v>30.736000000000001</v>
-      </c>
-      <c r="Y34">
-        <v>30.739000000000001</v>
-      </c>
-      <c r="Z34">
         <v>30.748999999999999</v>
       </c>
     </row>
@@ -41899,13 +41968,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -41956,38 +42027,38 @@
       <c r="B2">
         <v>240</v>
       </c>
-      <c r="C2">
-        <v>15.66</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="1">
+        <v>15.664</v>
+      </c>
+      <c r="D2" s="1">
+        <v>15.632</v>
+      </c>
+      <c r="E2" s="1">
+        <v>15.664999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>15.664</v>
+      </c>
+      <c r="G2" s="1">
+        <v>15.669</v>
+      </c>
+      <c r="H2" s="1">
+        <v>15.657</v>
+      </c>
+      <c r="I2" s="1">
+        <v>15.667999999999999</v>
+      </c>
+      <c r="J2" s="1">
+        <v>15.654999999999999</v>
+      </c>
+      <c r="K2" s="1">
         <v>15.63</v>
       </c>
-      <c r="E2">
-        <v>15.67</v>
-      </c>
-      <c r="F2">
-        <v>15.66</v>
-      </c>
-      <c r="G2">
-        <v>15.67</v>
-      </c>
-      <c r="H2">
-        <v>15.66</v>
-      </c>
-      <c r="I2">
-        <v>15.67</v>
-      </c>
-      <c r="J2">
-        <v>15.66</v>
-      </c>
-      <c r="K2">
-        <v>15.63</v>
-      </c>
-      <c r="L2">
-        <v>15.67</v>
-      </c>
-      <c r="M2">
-        <v>15.65</v>
+      <c r="L2" s="1">
+        <v>15.666</v>
+      </c>
+      <c r="M2" s="1">
+        <v>15.648999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -41997,38 +42068,38 @@
       <c r="B3">
         <v>240</v>
       </c>
-      <c r="C3">
-        <v>16.36</v>
-      </c>
-      <c r="D3">
-        <v>16.3</v>
-      </c>
-      <c r="E3">
-        <v>16.309999999999999</v>
-      </c>
-      <c r="F3">
-        <v>16.36</v>
-      </c>
-      <c r="G3">
-        <v>16.32</v>
-      </c>
-      <c r="H3">
-        <v>16.34</v>
-      </c>
-      <c r="I3">
-        <v>16.34</v>
-      </c>
-      <c r="J3">
-        <v>16.3</v>
-      </c>
-      <c r="K3">
+      <c r="C3" s="1">
+        <v>16.356000000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>16.297999999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16.309000000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>16.356000000000002</v>
+      </c>
+      <c r="G3" s="1">
+        <v>16.317</v>
+      </c>
+      <c r="H3" s="1">
+        <v>16.335000000000001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>16.344000000000001</v>
+      </c>
+      <c r="J3" s="1">
+        <v>16.302</v>
+      </c>
+      <c r="K3" s="1">
         <v>16.329999999999998</v>
       </c>
-      <c r="L3">
-        <v>16.32</v>
-      </c>
-      <c r="M3">
-        <v>16.32</v>
+      <c r="L3" s="1">
+        <v>16.321000000000002</v>
+      </c>
+      <c r="M3" s="1">
+        <v>16.318999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -42038,38 +42109,38 @@
       <c r="B4">
         <v>262</v>
       </c>
-      <c r="C4">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="D4">
-        <v>16.579999999999998</v>
-      </c>
-      <c r="E4">
-        <v>16.59</v>
-      </c>
-      <c r="F4">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="G4">
-        <v>16.59</v>
-      </c>
-      <c r="H4">
-        <v>16.59</v>
-      </c>
-      <c r="I4">
-        <v>16.59</v>
-      </c>
-      <c r="J4">
-        <v>16.579999999999998</v>
-      </c>
-      <c r="K4">
-        <v>16.59</v>
-      </c>
-      <c r="L4">
-        <v>16.59</v>
-      </c>
-      <c r="M4">
-        <v>16.59</v>
+      <c r="C4" s="1">
+        <v>16.597000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>16.582999999999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>16.587</v>
+      </c>
+      <c r="F4" s="1">
+        <v>16.597000000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>16.588000000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>16.591000000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>16.594000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>16.584</v>
+      </c>
+      <c r="K4" s="1">
+        <v>16.588999999999999</v>
+      </c>
+      <c r="L4" s="1">
+        <v>16.588999999999999</v>
+      </c>
+      <c r="M4" s="1">
+        <v>16.588000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -42079,38 +42150,38 @@
       <c r="B5">
         <v>282</v>
       </c>
-      <c r="C5">
-        <v>17.36</v>
-      </c>
-      <c r="D5">
-        <v>17.38</v>
-      </c>
-      <c r="E5">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="F5">
-        <v>17.36</v>
-      </c>
-      <c r="G5">
-        <v>17.36</v>
-      </c>
-      <c r="H5">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="I5">
-        <v>17.36</v>
-      </c>
-      <c r="J5">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="K5">
-        <v>17.350000000000001</v>
-      </c>
-      <c r="L5">
-        <v>17.36</v>
-      </c>
-      <c r="M5">
-        <v>17.36</v>
+      <c r="C5" s="1">
+        <v>17.356000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>17.376000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>17.353999999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>17.356000000000002</v>
+      </c>
+      <c r="G5" s="1">
+        <v>17.355</v>
+      </c>
+      <c r="H5" s="1">
+        <v>17.353999999999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>17.355</v>
+      </c>
+      <c r="J5" s="1">
+        <v>17.352</v>
+      </c>
+      <c r="K5" s="1">
+        <v>17.353999999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.355</v>
+      </c>
+      <c r="M5" s="1">
+        <v>17.355</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -42120,38 +42191,38 @@
       <c r="B6">
         <v>284</v>
       </c>
-      <c r="C6">
-        <v>17.5</v>
-      </c>
-      <c r="D6">
-        <v>17.5</v>
-      </c>
-      <c r="E6">
-        <v>17.510000000000002</v>
-      </c>
-      <c r="F6">
-        <v>17.5</v>
-      </c>
-      <c r="G6">
-        <v>17.5</v>
-      </c>
-      <c r="H6">
-        <v>17.5</v>
-      </c>
-      <c r="I6">
-        <v>17.5</v>
-      </c>
-      <c r="J6">
-        <v>17.5</v>
-      </c>
-      <c r="K6">
-        <v>17.5</v>
-      </c>
-      <c r="L6">
-        <v>17.5</v>
-      </c>
-      <c r="M6">
-        <v>17.5</v>
+      <c r="C6" s="1">
+        <v>17.498000000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>17.495999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>17.504999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>17.498000000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>17.501000000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>17.498999999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>17.498000000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>17.495999999999999</v>
+      </c>
+      <c r="K6" s="1">
+        <v>17.497</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17.498999999999999</v>
+      </c>
+      <c r="M6" s="1">
+        <v>17.497</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -42161,38 +42232,38 @@
       <c r="B7">
         <v>296</v>
       </c>
-      <c r="C7">
-        <v>17.66</v>
-      </c>
-      <c r="D7">
-        <v>17.66</v>
-      </c>
-      <c r="E7">
-        <v>17.66</v>
-      </c>
-      <c r="F7">
-        <v>17.66</v>
-      </c>
-      <c r="G7">
-        <v>17.66</v>
-      </c>
-      <c r="H7">
-        <v>17.649999999999999</v>
-      </c>
-      <c r="I7">
-        <v>17.66</v>
-      </c>
-      <c r="J7">
-        <v>17.649999999999999</v>
-      </c>
-      <c r="K7">
-        <v>17.649999999999999</v>
-      </c>
-      <c r="L7">
-        <v>17.66</v>
-      </c>
-      <c r="M7">
-        <v>17.66</v>
+      <c r="C7" s="1">
+        <v>17.655999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>17.655999999999999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>17.654</v>
+      </c>
+      <c r="I7" s="1">
+        <v>17.655999999999999</v>
+      </c>
+      <c r="J7" s="1">
+        <v>17.652999999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>17.652999999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <v>17.655000000000001</v>
+      </c>
+      <c r="M7" s="1">
+        <v>17.655000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -42202,37 +42273,37 @@
       <c r="B8">
         <v>294</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
+        <v>18.140999999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <v>18.132000000000001</v>
+      </c>
+      <c r="E8" s="1">
         <v>18.14</v>
       </c>
-      <c r="D8">
-        <v>18.13</v>
-      </c>
-      <c r="E8">
+      <c r="F8" s="1">
+        <v>18.140999999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>18.137</v>
+      </c>
+      <c r="H8" s="1">
+        <v>18.135999999999999</v>
+      </c>
+      <c r="I8" s="1">
         <v>18.14</v>
       </c>
-      <c r="F8">
-        <v>18.14</v>
-      </c>
-      <c r="G8">
-        <v>18.14</v>
-      </c>
-      <c r="H8">
-        <v>18.14</v>
-      </c>
-      <c r="I8">
-        <v>18.14</v>
-      </c>
-      <c r="J8">
-        <v>18.13</v>
-      </c>
-      <c r="K8">
-        <v>18.13</v>
-      </c>
-      <c r="L8">
-        <v>18.13</v>
-      </c>
-      <c r="M8">
+      <c r="J8" s="1">
+        <v>18.134</v>
+      </c>
+      <c r="K8" s="1">
+        <v>18.134</v>
+      </c>
+      <c r="L8" s="1">
+        <v>18.134</v>
+      </c>
+      <c r="M8" s="1">
         <v>18.14</v>
       </c>
     </row>
@@ -42243,35 +42314,38 @@
       <c r="B9">
         <v>294</v>
       </c>
-      <c r="C9">
-        <v>18.2</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="1">
+        <v>18.196000000000002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>18.190999999999999</v>
+      </c>
+      <c r="F9" s="1">
+        <v>18.196000000000002</v>
+      </c>
+      <c r="G9" s="1">
         <v>18.190000000000001</v>
       </c>
-      <c r="F9">
-        <v>18.2</v>
-      </c>
-      <c r="G9">
-        <v>18.190000000000001</v>
-      </c>
-      <c r="H9">
-        <v>18.190000000000001</v>
-      </c>
-      <c r="I9">
-        <v>18.2</v>
-      </c>
-      <c r="J9">
-        <v>18.190000000000001</v>
-      </c>
-      <c r="K9">
-        <v>18.190000000000001</v>
-      </c>
-      <c r="L9">
-        <v>18.190000000000001</v>
-      </c>
-      <c r="M9">
-        <v>18.2</v>
+      <c r="H9" s="1">
+        <v>18.187999999999999</v>
+      </c>
+      <c r="I9" s="1">
+        <v>18.196999999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <v>18.186</v>
+      </c>
+      <c r="K9" s="1">
+        <v>18.187999999999999</v>
+      </c>
+      <c r="L9" s="1">
+        <v>18.187000000000001</v>
+      </c>
+      <c r="M9" s="1">
+        <v>18.196999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -42281,38 +42355,38 @@
       <c r="B10">
         <v>290</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>18.28</v>
       </c>
-      <c r="D10">
-        <v>18.27</v>
-      </c>
-      <c r="E10">
-        <v>18.27</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="1">
+        <v>18.265000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>18.271999999999998</v>
+      </c>
+      <c r="F10" s="1">
         <v>18.28</v>
       </c>
-      <c r="G10">
-        <v>18.27</v>
-      </c>
-      <c r="H10">
-        <v>18.27</v>
-      </c>
-      <c r="I10">
-        <v>18.28</v>
-      </c>
-      <c r="J10">
-        <v>18.27</v>
-      </c>
-      <c r="K10">
-        <v>18.27</v>
-      </c>
-      <c r="L10">
-        <v>18.27</v>
-      </c>
-      <c r="M10">
-        <v>18.28</v>
+      <c r="G10" s="1">
+        <v>18.271999999999998</v>
+      </c>
+      <c r="H10" s="1">
+        <v>18.268999999999998</v>
+      </c>
+      <c r="I10" s="1">
+        <v>18.277999999999999</v>
+      </c>
+      <c r="J10" s="1">
+        <v>18.268000000000001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>18.268999999999998</v>
+      </c>
+      <c r="L10" s="1">
+        <v>18.268000000000001</v>
+      </c>
+      <c r="M10" s="1">
+        <v>18.282</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -42322,38 +42396,38 @@
       <c r="B11">
         <v>296</v>
       </c>
-      <c r="C11">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="D11">
-        <v>18.37</v>
-      </c>
-      <c r="E11">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F11">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="G11">
-        <v>18.39</v>
-      </c>
-      <c r="H11">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="I11">
-        <v>18.39</v>
-      </c>
-      <c r="J11">
-        <v>18.39</v>
-      </c>
-      <c r="K11">
-        <v>18.38</v>
-      </c>
-      <c r="L11">
-        <v>18.39</v>
-      </c>
-      <c r="M11">
-        <v>18.399999999999999</v>
+      <c r="C11" s="1">
+        <v>18.402000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>18.373000000000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>18.396000000000001</v>
+      </c>
+      <c r="F11" s="1">
+        <v>18.402000000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>18.393000000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>18.395</v>
+      </c>
+      <c r="I11" s="1">
+        <v>18.388000000000002</v>
+      </c>
+      <c r="J11" s="1">
+        <v>18.385000000000002</v>
+      </c>
+      <c r="K11" s="1">
+        <v>18.379000000000001</v>
+      </c>
+      <c r="L11" s="1">
+        <v>18.385000000000002</v>
+      </c>
+      <c r="M11" s="1">
+        <v>18.398</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -42363,38 +42437,38 @@
       <c r="B12">
         <v>292</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>18.95</v>
       </c>
-      <c r="D12">
-        <v>18.89</v>
-      </c>
-      <c r="E12">
-        <v>18.93</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="1">
+        <v>18.893999999999998</v>
+      </c>
+      <c r="E12" s="1">
+        <v>18.928000000000001</v>
+      </c>
+      <c r="F12" s="1">
         <v>18.95</v>
       </c>
-      <c r="G12">
-        <v>18.93</v>
-      </c>
-      <c r="H12">
-        <v>18.93</v>
-      </c>
-      <c r="I12">
-        <v>18.93</v>
-      </c>
-      <c r="J12">
-        <v>18.920000000000002</v>
-      </c>
-      <c r="K12">
-        <v>18.920000000000002</v>
-      </c>
-      <c r="L12">
-        <v>18.920000000000002</v>
-      </c>
-      <c r="M12">
-        <v>18.940000000000001</v>
+      <c r="G12" s="1">
+        <v>18.925999999999998</v>
+      </c>
+      <c r="H12" s="1">
+        <v>18.928999999999998</v>
+      </c>
+      <c r="I12" s="1">
+        <v>18.933</v>
+      </c>
+      <c r="J12" s="1">
+        <v>18.920999999999999</v>
+      </c>
+      <c r="K12" s="1">
+        <v>18.919</v>
+      </c>
+      <c r="L12" s="1">
+        <v>18.919</v>
+      </c>
+      <c r="M12" s="1">
+        <v>18.943999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -42404,38 +42478,38 @@
       <c r="B13">
         <v>312</v>
       </c>
-      <c r="C13">
-        <v>19.14</v>
-      </c>
-      <c r="D13">
-        <v>19.05</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="1">
+        <v>19.143000000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>19.052</v>
+      </c>
+      <c r="E13" s="1">
         <v>19.100000000000001</v>
       </c>
-      <c r="F13">
-        <v>19.14</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="1">
+        <v>19.143000000000001</v>
+      </c>
+      <c r="G13" s="1">
         <v>19.09</v>
       </c>
-      <c r="H13">
-        <v>19.079999999999998</v>
-      </c>
-      <c r="I13">
-        <v>19.11</v>
-      </c>
-      <c r="J13">
-        <v>19.079999999999998</v>
-      </c>
-      <c r="K13">
-        <v>19.07</v>
-      </c>
-      <c r="L13">
-        <v>19.07</v>
-      </c>
-      <c r="M13">
-        <v>19.14</v>
+      <c r="H13" s="1">
+        <v>19.074999999999999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>19.111000000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>19.077000000000002</v>
+      </c>
+      <c r="K13" s="1">
+        <v>19.073</v>
+      </c>
+      <c r="L13" s="1">
+        <v>19.074000000000002</v>
+      </c>
+      <c r="M13" s="1">
+        <v>19.138999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -42445,38 +42519,38 @@
       <c r="B14">
         <v>288</v>
       </c>
-      <c r="C14">
-        <v>19.3</v>
-      </c>
-      <c r="D14">
-        <v>19.25</v>
-      </c>
-      <c r="E14">
-        <v>19.25</v>
-      </c>
-      <c r="F14">
-        <v>19.3</v>
-      </c>
-      <c r="G14">
-        <v>19.25</v>
-      </c>
-      <c r="H14">
-        <v>19.239999999999998</v>
-      </c>
-      <c r="I14">
-        <v>19.28</v>
-      </c>
-      <c r="J14">
-        <v>19.239999999999998</v>
-      </c>
-      <c r="K14">
-        <v>19.25</v>
-      </c>
-      <c r="L14">
-        <v>19.239999999999998</v>
-      </c>
-      <c r="M14">
-        <v>19.29</v>
+      <c r="C14" s="1">
+        <v>19.295000000000002</v>
+      </c>
+      <c r="D14" s="1">
+        <v>19.251000000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>19.251999999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>19.295000000000002</v>
+      </c>
+      <c r="G14" s="1">
+        <v>19.254000000000001</v>
+      </c>
+      <c r="H14" s="1">
+        <v>19.241</v>
+      </c>
+      <c r="I14" s="1">
+        <v>19.276</v>
+      </c>
+      <c r="J14" s="1">
+        <v>19.242000000000001</v>
+      </c>
+      <c r="K14" s="1">
+        <v>19.251000000000001</v>
+      </c>
+      <c r="L14" s="1">
+        <v>19.241</v>
+      </c>
+      <c r="M14" s="1">
+        <v>19.294</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -42486,38 +42560,38 @@
       <c r="B15">
         <v>288</v>
       </c>
-      <c r="C15">
-        <v>19.59</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="1">
+        <v>19.585000000000001</v>
+      </c>
+      <c r="D15" s="1">
         <v>19.5</v>
       </c>
-      <c r="E15">
-        <v>19.52</v>
-      </c>
-      <c r="F15">
-        <v>19.59</v>
-      </c>
-      <c r="G15">
-        <v>19.52</v>
-      </c>
-      <c r="H15">
+      <c r="E15" s="1">
+        <v>19.516999999999999</v>
+      </c>
+      <c r="F15" s="1">
+        <v>19.585000000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>19.521000000000001</v>
+      </c>
+      <c r="H15" s="1">
         <v>19.5</v>
       </c>
-      <c r="I15">
-        <v>19.55</v>
-      </c>
-      <c r="J15">
-        <v>19.510000000000002</v>
-      </c>
-      <c r="K15">
-        <v>19.52</v>
-      </c>
-      <c r="L15">
-        <v>19.510000000000002</v>
-      </c>
-      <c r="M15">
-        <v>19.579999999999998</v>
+      <c r="I15" s="1">
+        <v>19.553999999999998</v>
+      </c>
+      <c r="J15" s="1">
+        <v>19.504999999999999</v>
+      </c>
+      <c r="K15" s="1">
+        <v>19.524000000000001</v>
+      </c>
+      <c r="L15" s="1">
+        <v>19.506</v>
+      </c>
+      <c r="M15" s="1">
+        <v>19.582999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -42527,32 +42601,38 @@
       <c r="B16">
         <v>334</v>
       </c>
-      <c r="C16">
-        <v>19.8</v>
-      </c>
-      <c r="D16">
-        <v>19.78</v>
-      </c>
-      <c r="E16">
-        <v>19.809999999999999</v>
-      </c>
-      <c r="F16">
-        <v>19.8</v>
-      </c>
-      <c r="G16">
-        <v>19.79</v>
-      </c>
-      <c r="H16">
-        <v>19.78</v>
-      </c>
-      <c r="I16">
-        <v>19.77</v>
-      </c>
-      <c r="L16">
-        <v>19.77</v>
-      </c>
-      <c r="M16">
-        <v>19.78</v>
+      <c r="C16" s="1">
+        <v>19.798999999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>19.780999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>19.805</v>
+      </c>
+      <c r="F16" s="1">
+        <v>19.798999999999999</v>
+      </c>
+      <c r="G16" s="1">
+        <v>19.786000000000001</v>
+      </c>
+      <c r="H16" s="1">
+        <v>19.783000000000001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>19.774000000000001</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>19.773</v>
+      </c>
+      <c r="M16" s="1">
+        <v>19.776</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -42562,38 +42642,38 @@
       <c r="B17">
         <v>322</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
+        <v>20.166</v>
+      </c>
+      <c r="D17" s="1">
+        <v>20.164999999999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20.213000000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>20.166</v>
+      </c>
+      <c r="G17" s="1">
+        <v>20.193999999999999</v>
+      </c>
+      <c r="H17" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>20.187999999999999</v>
+      </c>
+      <c r="J17" s="1">
+        <v>20.192</v>
+      </c>
+      <c r="K17" s="1">
         <v>20.170000000000002</v>
       </c>
-      <c r="D17">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="E17">
-        <v>20.21</v>
-      </c>
-      <c r="F17">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="G17">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="H17">
-        <v>20.2</v>
-      </c>
-      <c r="I17">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="J17">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="K17">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="L17">
-        <v>20.2</v>
-      </c>
-      <c r="M17">
-        <v>20.2</v>
+      <c r="L17" s="1">
+        <v>20.202000000000002</v>
+      </c>
+      <c r="M17" s="1">
+        <v>20.201000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -42603,28 +42683,37 @@
       <c r="B18">
         <v>324</v>
       </c>
-      <c r="C18">
-        <v>20.23</v>
-      </c>
-      <c r="D18">
-        <v>20.69</v>
-      </c>
-      <c r="F18">
-        <v>20.23</v>
-      </c>
-      <c r="I18">
-        <v>20.71</v>
-      </c>
-      <c r="J18">
-        <v>20.71</v>
-      </c>
-      <c r="K18">
-        <v>20.7</v>
-      </c>
-      <c r="L18">
-        <v>20.71</v>
-      </c>
-      <c r="M18">
+      <c r="C18" s="1">
+        <v>20.233000000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>20.690999999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>20.233000000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>20.709</v>
+      </c>
+      <c r="J18" s="1">
+        <v>20.704999999999998</v>
+      </c>
+      <c r="K18" s="1">
+        <v>20.699000000000002</v>
+      </c>
+      <c r="L18" s="1">
+        <v>20.709</v>
+      </c>
+      <c r="M18" s="1">
         <v>20.71</v>
       </c>
     </row>
@@ -42635,38 +42724,38 @@
       <c r="B19">
         <v>336</v>
       </c>
-      <c r="C19">
-        <v>20.78</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="1">
+        <v>20.774999999999999</v>
+      </c>
+      <c r="D19" s="1">
         <v>20.73</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>20.77</v>
       </c>
-      <c r="F19">
-        <v>20.78</v>
-      </c>
-      <c r="G19">
-        <v>20.77</v>
-      </c>
-      <c r="H19">
-        <v>20.77</v>
-      </c>
-      <c r="I19">
-        <v>20.77</v>
-      </c>
-      <c r="J19">
-        <v>20.77</v>
-      </c>
-      <c r="K19">
-        <v>20.76</v>
-      </c>
-      <c r="L19">
-        <v>20.77</v>
-      </c>
-      <c r="M19">
-        <v>20.77</v>
+      <c r="F19" s="1">
+        <v>20.774999999999999</v>
+      </c>
+      <c r="G19" s="1">
+        <v>20.766999999999999</v>
+      </c>
+      <c r="H19" s="1">
+        <v>20.765999999999998</v>
+      </c>
+      <c r="I19" s="1">
+        <v>20.766999999999999</v>
+      </c>
+      <c r="J19" s="1">
+        <v>20.765000000000001</v>
+      </c>
+      <c r="K19" s="1">
+        <v>20.762</v>
+      </c>
+      <c r="L19" s="1">
+        <v>20.766999999999999</v>
+      </c>
+      <c r="M19" s="1">
+        <v>20.768999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -42676,38 +42765,38 @@
       <c r="B20">
         <v>336</v>
       </c>
-      <c r="C20">
-        <v>20.93</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="1">
+        <v>20.928999999999998</v>
+      </c>
+      <c r="D20" s="1">
+        <v>20.917999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>20.925000000000001</v>
+      </c>
+      <c r="F20" s="1">
+        <v>20.928999999999998</v>
+      </c>
+      <c r="G20" s="1">
+        <v>20.922000000000001</v>
+      </c>
+      <c r="H20" s="1">
         <v>20.92</v>
       </c>
-      <c r="E20">
-        <v>20.93</v>
-      </c>
-      <c r="F20">
-        <v>20.93</v>
-      </c>
-      <c r="G20">
+      <c r="I20" s="1">
+        <v>20.922999999999998</v>
+      </c>
+      <c r="J20" s="1">
+        <v>20.919</v>
+      </c>
+      <c r="K20" s="1">
+        <v>20.916</v>
+      </c>
+      <c r="L20" s="1">
         <v>20.92</v>
       </c>
-      <c r="H20">
-        <v>20.92</v>
-      </c>
-      <c r="I20">
-        <v>20.92</v>
-      </c>
-      <c r="J20">
-        <v>20.92</v>
-      </c>
-      <c r="K20">
-        <v>20.92</v>
-      </c>
-      <c r="L20">
-        <v>20.92</v>
-      </c>
-      <c r="M20">
-        <v>20.92</v>
+      <c r="M20" s="1">
+        <v>20.923999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -42717,38 +42806,38 @@
       <c r="B21">
         <v>338</v>
       </c>
-      <c r="C21">
-        <v>20.98</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="1">
+        <v>20.975999999999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20.968</v>
+      </c>
+      <c r="E21" s="1">
+        <v>20.972999999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>20.975999999999999</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20.972000000000001</v>
+      </c>
+      <c r="H21" s="1">
+        <v>20.971</v>
+      </c>
+      <c r="I21" s="1">
+        <v>20.972000000000001</v>
+      </c>
+      <c r="J21" s="1">
         <v>20.97</v>
       </c>
-      <c r="E21">
-        <v>20.97</v>
-      </c>
-      <c r="F21">
-        <v>20.98</v>
-      </c>
-      <c r="G21">
-        <v>20.97</v>
-      </c>
-      <c r="H21">
-        <v>20.97</v>
-      </c>
-      <c r="I21">
-        <v>20.97</v>
-      </c>
-      <c r="J21">
-        <v>20.97</v>
-      </c>
-      <c r="K21">
-        <v>20.97</v>
-      </c>
-      <c r="L21">
-        <v>20.97</v>
-      </c>
-      <c r="M21">
-        <v>20.97</v>
+      <c r="K21" s="1">
+        <v>20.969000000000001</v>
+      </c>
+      <c r="L21" s="1">
+        <v>20.971</v>
+      </c>
+      <c r="M21" s="1">
+        <v>20.972999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -42758,38 +42847,38 @@
       <c r="B22">
         <v>348</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
+        <v>21.411999999999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>21.401</v>
+      </c>
+      <c r="E22" s="1">
         <v>21.41</v>
       </c>
-      <c r="D22">
-        <v>21.4</v>
-      </c>
-      <c r="E22">
-        <v>21.41</v>
-      </c>
-      <c r="F22">
-        <v>21.41</v>
-      </c>
-      <c r="G22">
-        <v>21.41</v>
-      </c>
-      <c r="H22">
-        <v>21.41</v>
-      </c>
-      <c r="I22">
-        <v>21.41</v>
-      </c>
-      <c r="J22">
-        <v>21.4</v>
-      </c>
-      <c r="K22">
-        <v>21.4</v>
-      </c>
-      <c r="L22">
-        <v>21.41</v>
-      </c>
-      <c r="M22">
-        <v>21.41</v>
+      <c r="F22" s="1">
+        <v>21.411999999999999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>21.408000000000001</v>
+      </c>
+      <c r="H22" s="1">
+        <v>21.407</v>
+      </c>
+      <c r="I22" s="1">
+        <v>21.407</v>
+      </c>
+      <c r="J22" s="1">
+        <v>21.402999999999999</v>
+      </c>
+      <c r="K22" s="1">
+        <v>21.401</v>
+      </c>
+      <c r="L22" s="1">
+        <v>21.405999999999999</v>
+      </c>
+      <c r="M22" s="1">
+        <v>21.408000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -42799,14 +42888,38 @@
       <c r="B23">
         <v>350</v>
       </c>
-      <c r="G23">
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
         <v>21.55</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>21.55</v>
       </c>
-      <c r="M23">
-        <v>21.55</v>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>21.547999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -42816,38 +42929,38 @@
       <c r="B24">
         <v>350</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>21.61</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>21.58</v>
       </c>
-      <c r="E24">
-        <v>21.6</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="1">
+        <v>21.603000000000002</v>
+      </c>
+      <c r="F24" s="1">
         <v>21.61</v>
       </c>
-      <c r="G24">
-        <v>21.59</v>
-      </c>
-      <c r="H24">
-        <v>21.59</v>
-      </c>
-      <c r="I24">
+      <c r="G24" s="1">
+        <v>21.591000000000001</v>
+      </c>
+      <c r="H24" s="1">
+        <v>21.591999999999999</v>
+      </c>
+      <c r="I24" s="1">
+        <v>21.584</v>
+      </c>
+      <c r="J24" s="1">
+        <v>21.587</v>
+      </c>
+      <c r="K24" s="1">
         <v>21.58</v>
       </c>
-      <c r="J24">
-        <v>21.59</v>
-      </c>
-      <c r="K24">
-        <v>21.58</v>
-      </c>
-      <c r="L24">
-        <v>21.59</v>
-      </c>
-      <c r="M24">
-        <v>21.59</v>
+      <c r="L24" s="1">
+        <v>21.591000000000001</v>
+      </c>
+      <c r="M24" s="1">
+        <v>21.587</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -42857,38 +42970,38 @@
       <c r="B25">
         <v>352</v>
       </c>
-      <c r="C25">
-        <v>21.81</v>
-      </c>
-      <c r="D25">
-        <v>21.78</v>
-      </c>
-      <c r="E25">
-        <v>21.8</v>
-      </c>
-      <c r="F25">
-        <v>21.81</v>
-      </c>
-      <c r="G25">
+      <c r="C25" s="1">
+        <v>21.808</v>
+      </c>
+      <c r="D25" s="1">
+        <v>21.777000000000001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>21.797999999999998</v>
+      </c>
+      <c r="F25" s="1">
+        <v>21.808</v>
+      </c>
+      <c r="G25" s="1">
+        <v>21.786999999999999</v>
+      </c>
+      <c r="H25" s="1">
         <v>21.79</v>
       </c>
-      <c r="H25">
-        <v>21.79</v>
-      </c>
-      <c r="I25">
-        <v>21.78</v>
-      </c>
-      <c r="J25">
-        <v>21.78</v>
-      </c>
-      <c r="K25">
-        <v>21.78</v>
-      </c>
-      <c r="L25">
-        <v>21.8</v>
-      </c>
-      <c r="M25">
-        <v>21.79</v>
+      <c r="I25" s="1">
+        <v>21.783999999999999</v>
+      </c>
+      <c r="J25" s="1">
+        <v>21.783000000000001</v>
+      </c>
+      <c r="K25" s="1">
+        <v>21.777000000000001</v>
+      </c>
+      <c r="L25" s="1">
+        <v>21.795999999999999</v>
+      </c>
+      <c r="M25" s="1">
+        <v>21.792999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -42898,38 +43011,38 @@
       <c r="B26">
         <v>378</v>
       </c>
-      <c r="C26">
-        <v>23.06</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="1">
+        <v>23.056000000000001</v>
+      </c>
+      <c r="D26" s="1">
         <v>23.05</v>
       </c>
-      <c r="E26">
-        <v>23.06</v>
-      </c>
-      <c r="F26">
-        <v>23.06</v>
-      </c>
-      <c r="G26">
-        <v>23.05</v>
-      </c>
-      <c r="H26">
-        <v>23.05</v>
-      </c>
-      <c r="I26">
-        <v>23.05</v>
-      </c>
-      <c r="J26">
-        <v>23.05</v>
-      </c>
-      <c r="K26">
-        <v>23.05</v>
-      </c>
-      <c r="L26">
-        <v>23.05</v>
-      </c>
-      <c r="M26">
-        <v>23.05</v>
+      <c r="E26" s="1">
+        <v>23.055</v>
+      </c>
+      <c r="F26" s="1">
+        <v>23.056000000000001</v>
+      </c>
+      <c r="G26" s="1">
+        <v>23.053999999999998</v>
+      </c>
+      <c r="H26" s="1">
+        <v>23.053999999999998</v>
+      </c>
+      <c r="I26" s="1">
+        <v>23.052</v>
+      </c>
+      <c r="J26" s="1">
+        <v>23.048999999999999</v>
+      </c>
+      <c r="K26" s="1">
+        <v>23.048999999999999</v>
+      </c>
+      <c r="L26" s="1">
+        <v>23.050999999999998</v>
+      </c>
+      <c r="M26" s="1">
+        <v>23.053999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -42939,38 +43052,38 @@
       <c r="B27">
         <v>378</v>
       </c>
-      <c r="C27">
-        <v>23.12</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="1">
+        <v>23.114999999999998</v>
+      </c>
+      <c r="D27" s="1">
+        <v>23.106000000000002</v>
+      </c>
+      <c r="E27" s="1">
+        <v>23.113</v>
+      </c>
+      <c r="F27" s="1">
+        <v>23.114999999999998</v>
+      </c>
+      <c r="G27" s="1">
         <v>23.11</v>
       </c>
-      <c r="E27">
-        <v>23.11</v>
-      </c>
-      <c r="F27">
-        <v>23.12</v>
-      </c>
-      <c r="G27">
-        <v>23.11</v>
-      </c>
-      <c r="H27">
-        <v>23.11</v>
-      </c>
-      <c r="I27">
-        <v>23.11</v>
-      </c>
-      <c r="J27">
-        <v>23.1</v>
-      </c>
-      <c r="K27">
-        <v>23.1</v>
-      </c>
-      <c r="L27">
-        <v>23.11</v>
-      </c>
-      <c r="M27">
-        <v>23.11</v>
+      <c r="H27" s="1">
+        <v>23.108000000000001</v>
+      </c>
+      <c r="I27" s="1">
+        <v>23.106000000000002</v>
+      </c>
+      <c r="J27" s="1">
+        <v>23.103000000000002</v>
+      </c>
+      <c r="K27" s="1">
+        <v>23.103999999999999</v>
+      </c>
+      <c r="L27" s="1">
+        <v>23.109000000000002</v>
+      </c>
+      <c r="M27" s="1">
+        <v>23.109000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -42978,101 +43091,122 @@
         <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28">
-        <v>23.16</v>
-      </c>
-      <c r="I28">
-        <v>23.16</v>
-      </c>
-      <c r="J28">
-        <v>23.15</v>
-      </c>
-      <c r="K28">
-        <v>23.16</v>
+        <v>144</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>23.155999999999999</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>23.155999999999999</v>
+      </c>
+      <c r="J28" s="1">
+        <v>23.152999999999999</v>
+      </c>
+      <c r="K28" s="1">
+        <v>23.157</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29">
         <v>380</v>
       </c>
-      <c r="C29">
-        <v>23.29</v>
-      </c>
-      <c r="D29">
-        <v>23.28</v>
-      </c>
-      <c r="E29">
-        <v>23.29</v>
-      </c>
-      <c r="F29">
-        <v>23.29</v>
-      </c>
-      <c r="G29">
-        <v>23.29</v>
-      </c>
-      <c r="H29">
-        <v>23.29</v>
-      </c>
-      <c r="I29">
-        <v>23.28</v>
-      </c>
-      <c r="J29">
-        <v>23.28</v>
-      </c>
-      <c r="K29">
-        <v>23.28</v>
-      </c>
-      <c r="L29">
-        <v>23.29</v>
-      </c>
-      <c r="M29">
-        <v>23.29</v>
+      <c r="C29" s="1">
+        <v>23.292000000000002</v>
+      </c>
+      <c r="D29" s="1">
+        <v>23.276</v>
+      </c>
+      <c r="E29" s="1">
+        <v>23.291</v>
+      </c>
+      <c r="F29" s="1">
+        <v>23.292000000000002</v>
+      </c>
+      <c r="G29" s="1">
+        <v>23.285</v>
+      </c>
+      <c r="H29" s="1">
+        <v>23.286000000000001</v>
+      </c>
+      <c r="I29" s="1">
+        <v>23.283000000000001</v>
+      </c>
+      <c r="J29" s="1">
+        <v>23.277999999999999</v>
+      </c>
+      <c r="K29" s="1">
+        <v>23.277000000000001</v>
+      </c>
+      <c r="L29" s="1">
+        <v>23.289000000000001</v>
+      </c>
+      <c r="M29" s="1">
+        <v>23.291</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30">
         <v>396</v>
       </c>
-      <c r="C30">
-        <v>23.83</v>
-      </c>
-      <c r="D30">
-        <v>23.79</v>
-      </c>
-      <c r="E30">
-        <v>23.81</v>
-      </c>
-      <c r="F30">
-        <v>23.83</v>
-      </c>
-      <c r="G30">
-        <v>23.81</v>
-      </c>
-      <c r="H30">
-        <v>23.82</v>
-      </c>
-      <c r="I30">
-        <v>23.81</v>
-      </c>
-      <c r="J30">
-        <v>23.81</v>
-      </c>
-      <c r="K30">
+      <c r="C30" s="1">
+        <v>23.827000000000002</v>
+      </c>
+      <c r="D30" s="1">
+        <v>23.792000000000002</v>
+      </c>
+      <c r="E30" s="1">
+        <v>23.812999999999999</v>
+      </c>
+      <c r="F30" s="1">
+        <v>23.827000000000002</v>
+      </c>
+      <c r="G30" s="1">
+        <v>23.814</v>
+      </c>
+      <c r="H30" s="1">
+        <v>23.818999999999999</v>
+      </c>
+      <c r="I30" s="1">
+        <v>23.811</v>
+      </c>
+      <c r="J30" s="1">
+        <v>23.806000000000001</v>
+      </c>
+      <c r="K30" s="1">
         <v>23.8</v>
       </c>
-      <c r="L30">
-        <v>23.81</v>
-      </c>
-      <c r="M30">
-        <v>23.81</v>
+      <c r="L30" s="1">
+        <v>23.811</v>
+      </c>
+      <c r="M30" s="1">
+        <v>23.812000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -43082,38 +43216,38 @@
       <c r="B31">
         <v>406</v>
       </c>
-      <c r="C31">
-        <v>24.46</v>
-      </c>
-      <c r="D31">
-        <v>24.46</v>
-      </c>
-      <c r="E31">
-        <v>24.47</v>
-      </c>
-      <c r="F31">
-        <v>24.46</v>
-      </c>
-      <c r="G31">
-        <v>24.46</v>
-      </c>
-      <c r="H31">
-        <v>24.46</v>
-      </c>
-      <c r="I31">
-        <v>24.46</v>
-      </c>
-      <c r="J31">
-        <v>24.46</v>
-      </c>
-      <c r="K31">
-        <v>24.46</v>
-      </c>
-      <c r="L31">
-        <v>24.46</v>
-      </c>
-      <c r="M31">
-        <v>24.46</v>
+      <c r="C31" s="1">
+        <v>24.463999999999999</v>
+      </c>
+      <c r="D31" s="1">
+        <v>24.462</v>
+      </c>
+      <c r="E31" s="1">
+        <v>24.465</v>
+      </c>
+      <c r="F31" s="1">
+        <v>24.463999999999999</v>
+      </c>
+      <c r="G31" s="1">
+        <v>24.463999999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>24.463000000000001</v>
+      </c>
+      <c r="I31" s="1">
+        <v>24.463000000000001</v>
+      </c>
+      <c r="J31" s="1">
+        <v>24.459</v>
+      </c>
+      <c r="K31" s="1">
+        <v>24.460999999999999</v>
+      </c>
+      <c r="L31" s="1">
+        <v>24.463000000000001</v>
+      </c>
+      <c r="M31" s="1">
+        <v>24.463999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -43123,37 +43257,37 @@
       <c r="B32">
         <v>406</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
+        <v>24.530999999999999</v>
+      </c>
+      <c r="D32" s="1">
+        <v>24.527000000000001</v>
+      </c>
+      <c r="E32" s="1">
+        <v>24.532</v>
+      </c>
+      <c r="F32" s="1">
+        <v>24.530999999999999</v>
+      </c>
+      <c r="G32" s="1">
         <v>24.53</v>
       </c>
-      <c r="D32">
+      <c r="H32" s="1">
+        <v>24.529</v>
+      </c>
+      <c r="I32" s="1">
+        <v>24.527000000000001</v>
+      </c>
+      <c r="J32" s="1">
+        <v>24.524000000000001</v>
+      </c>
+      <c r="K32" s="1">
+        <v>24.524999999999999</v>
+      </c>
+      <c r="L32" s="1">
         <v>24.53</v>
       </c>
-      <c r="E32">
-        <v>24.53</v>
-      </c>
-      <c r="F32">
-        <v>24.53</v>
-      </c>
-      <c r="G32">
-        <v>24.53</v>
-      </c>
-      <c r="H32">
-        <v>24.53</v>
-      </c>
-      <c r="I32">
-        <v>24.53</v>
-      </c>
-      <c r="J32">
-        <v>24.52</v>
-      </c>
-      <c r="K32">
-        <v>24.53</v>
-      </c>
-      <c r="L32">
-        <v>24.53</v>
-      </c>
-      <c r="M32">
+      <c r="M32" s="1">
         <v>24.53</v>
       </c>
     </row>
@@ -43164,184 +43298,202 @@
       <c r="B33">
         <v>408</v>
       </c>
-      <c r="C33">
-        <v>24.68</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="1">
+        <v>24.681000000000001</v>
+      </c>
+      <c r="D33" s="1">
         <v>24.67</v>
       </c>
-      <c r="E33">
-        <v>24.68</v>
-      </c>
-      <c r="F33">
-        <v>24.68</v>
-      </c>
-      <c r="G33">
-        <v>24.67</v>
-      </c>
-      <c r="H33">
-        <v>24.68</v>
-      </c>
-      <c r="I33">
-        <v>24.67</v>
-      </c>
-      <c r="J33">
-        <v>24.67</v>
-      </c>
-      <c r="K33">
-        <v>24.67</v>
-      </c>
-      <c r="L33">
-        <v>24.68</v>
-      </c>
-      <c r="M33">
-        <v>24.68</v>
+      <c r="E33" s="1">
+        <v>24.678000000000001</v>
+      </c>
+      <c r="F33" s="1">
+        <v>24.681000000000001</v>
+      </c>
+      <c r="G33" s="1">
+        <v>24.673999999999999</v>
+      </c>
+      <c r="H33" s="1">
+        <v>24.675999999999998</v>
+      </c>
+      <c r="I33" s="1">
+        <v>24.673999999999999</v>
+      </c>
+      <c r="J33" s="1">
+        <v>24.672999999999998</v>
+      </c>
+      <c r="K33" s="1">
+        <v>24.672000000000001</v>
+      </c>
+      <c r="L33" s="1">
+        <v>24.675999999999998</v>
+      </c>
+      <c r="M33" s="1">
+        <v>24.677</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B34">
         <v>422</v>
       </c>
-      <c r="D34">
-        <v>25.08</v>
-      </c>
-      <c r="F34">
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>25.082000000000001</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>25.062999999999999</v>
+      </c>
+      <c r="G34" s="1">
+        <v>25.056999999999999</v>
+      </c>
+      <c r="H34" s="1">
         <v>25.06</v>
       </c>
-      <c r="G34">
-        <v>25.06</v>
-      </c>
-      <c r="H34">
-        <v>25.06</v>
-      </c>
-      <c r="J34">
-        <v>25.06</v>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>25.056999999999999</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35">
         <v>424</v>
       </c>
-      <c r="C35">
-        <v>25.16</v>
-      </c>
-      <c r="D35">
-        <v>25.14</v>
-      </c>
-      <c r="E35">
-        <v>25.16</v>
-      </c>
-      <c r="F35">
-        <v>25.16</v>
-      </c>
-      <c r="G35">
-        <v>25.16</v>
-      </c>
-      <c r="H35">
-        <v>25.15</v>
-      </c>
-      <c r="I35">
-        <v>25.15</v>
-      </c>
-      <c r="J35">
-        <v>25.15</v>
-      </c>
-      <c r="K35">
-        <v>25.14</v>
-      </c>
-      <c r="L35">
-        <v>25.15</v>
-      </c>
-      <c r="M35">
+      <c r="C35" s="1">
+        <v>25.161000000000001</v>
+      </c>
+      <c r="D35" s="1">
+        <v>25.140999999999998</v>
+      </c>
+      <c r="E35" s="1">
+        <v>25.157</v>
+      </c>
+      <c r="F35" s="1">
+        <v>25.161000000000001</v>
+      </c>
+      <c r="G35" s="1">
+        <v>25.155999999999999</v>
+      </c>
+      <c r="H35" s="1">
+        <v>25.152000000000001</v>
+      </c>
+      <c r="I35" s="1">
+        <v>25.154</v>
+      </c>
+      <c r="J35" s="1">
+        <v>25.146999999999998</v>
+      </c>
+      <c r="K35" s="1">
+        <v>25.143999999999998</v>
+      </c>
+      <c r="L35" s="1">
+        <v>25.151</v>
+      </c>
+      <c r="M35" s="1">
         <v>25.15</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B36">
         <v>446</v>
       </c>
-      <c r="C36">
-        <v>25.44</v>
-      </c>
-      <c r="D36">
-        <v>25.43</v>
-      </c>
-      <c r="E36">
-        <v>25.44</v>
-      </c>
-      <c r="F36">
-        <v>25.44</v>
-      </c>
-      <c r="G36">
-        <v>25.44</v>
-      </c>
-      <c r="H36">
-        <v>25.44</v>
-      </c>
-      <c r="I36">
-        <v>25.44</v>
-      </c>
-      <c r="J36">
-        <v>25.43</v>
-      </c>
-      <c r="K36">
-        <v>25.43</v>
-      </c>
-      <c r="L36">
-        <v>25.43</v>
-      </c>
-      <c r="M36">
-        <v>25.44</v>
+      <c r="C36" s="1">
+        <v>25.437000000000001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>25.431999999999999</v>
+      </c>
+      <c r="E36" s="1">
+        <v>25.434999999999999</v>
+      </c>
+      <c r="F36" s="1">
+        <v>25.437000000000001</v>
+      </c>
+      <c r="G36" s="1">
+        <v>25.434999999999999</v>
+      </c>
+      <c r="H36" s="1">
+        <v>25.434999999999999</v>
+      </c>
+      <c r="I36" s="1">
+        <v>25.436</v>
+      </c>
+      <c r="J36" s="1">
+        <v>25.434000000000001</v>
+      </c>
+      <c r="K36" s="1">
+        <v>25.433</v>
+      </c>
+      <c r="L36" s="1">
+        <v>25.434000000000001</v>
+      </c>
+      <c r="M36" s="1">
+        <v>25.436</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B37">
         <v>432</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
+        <v>25.673999999999999</v>
+      </c>
+      <c r="D37" s="1">
         <v>25.67</v>
       </c>
-      <c r="D37">
-        <v>25.67</v>
-      </c>
-      <c r="E37">
-        <v>25.67</v>
-      </c>
-      <c r="F37">
-        <v>25.67</v>
-      </c>
-      <c r="G37">
-        <v>25.67</v>
-      </c>
-      <c r="H37">
-        <v>25.67</v>
-      </c>
-      <c r="I37">
-        <v>25.67</v>
-      </c>
-      <c r="J37">
-        <v>25.67</v>
-      </c>
-      <c r="K37">
-        <v>25.67</v>
-      </c>
-      <c r="L37">
-        <v>25.67</v>
-      </c>
-      <c r="M37">
-        <v>25.67</v>
+      <c r="E37" s="1">
+        <v>25.672000000000001</v>
+      </c>
+      <c r="F37" s="1">
+        <v>25.673999999999999</v>
+      </c>
+      <c r="G37" s="1">
+        <v>25.672000000000001</v>
+      </c>
+      <c r="H37" s="1">
+        <v>25.672000000000001</v>
+      </c>
+      <c r="I37" s="1">
+        <v>25.672999999999998</v>
+      </c>
+      <c r="J37" s="1">
+        <v>25.670999999999999</v>
+      </c>
+      <c r="K37" s="1">
+        <v>25.670999999999999</v>
+      </c>
+      <c r="L37" s="1">
+        <v>25.670999999999999</v>
+      </c>
+      <c r="M37" s="1">
+        <v>25.673999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -43351,79 +43503,79 @@
       <c r="B38">
         <v>452</v>
       </c>
-      <c r="C38">
-        <v>25.85</v>
-      </c>
-      <c r="D38">
-        <v>25.85</v>
-      </c>
-      <c r="E38">
-        <v>25.85</v>
-      </c>
-      <c r="F38">
-        <v>25.85</v>
-      </c>
-      <c r="G38">
-        <v>25.85</v>
-      </c>
-      <c r="H38">
-        <v>25.85</v>
-      </c>
-      <c r="I38">
-        <v>25.85</v>
-      </c>
-      <c r="J38">
-        <v>25.85</v>
-      </c>
-      <c r="K38">
-        <v>25.85</v>
-      </c>
-      <c r="L38">
-        <v>25.85</v>
-      </c>
-      <c r="M38">
-        <v>25.85</v>
+      <c r="C38" s="1">
+        <v>25.852</v>
+      </c>
+      <c r="D38" s="1">
+        <v>25.849</v>
+      </c>
+      <c r="E38" s="1">
+        <v>25.852</v>
+      </c>
+      <c r="F38" s="1">
+        <v>25.852</v>
+      </c>
+      <c r="G38" s="1">
+        <v>25.849</v>
+      </c>
+      <c r="H38" s="1">
+        <v>25.849</v>
+      </c>
+      <c r="I38" s="1">
+        <v>25.850999999999999</v>
+      </c>
+      <c r="J38" s="1">
+        <v>25.849</v>
+      </c>
+      <c r="K38" s="1">
+        <v>25.849</v>
+      </c>
+      <c r="L38" s="1">
+        <v>25.850999999999999</v>
+      </c>
+      <c r="M38" s="1">
+        <v>25.850999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39">
         <v>474</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
+        <v>26.402000000000001</v>
+      </c>
+      <c r="D39" s="1">
+        <v>26.398</v>
+      </c>
+      <c r="E39" s="1">
+        <v>26.401</v>
+      </c>
+      <c r="F39" s="1">
+        <v>26.402000000000001</v>
+      </c>
+      <c r="G39" s="1">
+        <v>26.402000000000001</v>
+      </c>
+      <c r="H39" s="1">
+        <v>26.401</v>
+      </c>
+      <c r="I39" s="1">
+        <v>26.402999999999999</v>
+      </c>
+      <c r="J39" s="1">
         <v>26.4</v>
       </c>
-      <c r="D39">
+      <c r="K39" s="1">
         <v>26.4</v>
       </c>
-      <c r="E39">
-        <v>26.4</v>
-      </c>
-      <c r="F39">
-        <v>26.4</v>
-      </c>
-      <c r="G39">
-        <v>26.4</v>
-      </c>
-      <c r="H39">
-        <v>26.4</v>
-      </c>
-      <c r="I39">
-        <v>26.4</v>
-      </c>
-      <c r="J39">
-        <v>26.4</v>
-      </c>
-      <c r="K39">
-        <v>26.4</v>
-      </c>
-      <c r="L39">
-        <v>26.4</v>
-      </c>
-      <c r="M39">
-        <v>26.4</v>
+      <c r="L39" s="1">
+        <v>26.401</v>
+      </c>
+      <c r="M39" s="1">
+        <v>26.402000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -43433,243 +43585,243 @@
       <c r="B40">
         <v>478</v>
       </c>
-      <c r="C40">
-        <v>27.57</v>
-      </c>
-      <c r="D40">
-        <v>27.57</v>
-      </c>
-      <c r="E40">
-        <v>27.57</v>
-      </c>
-      <c r="F40">
-        <v>27.57</v>
-      </c>
-      <c r="G40">
-        <v>27.57</v>
-      </c>
-      <c r="H40">
-        <v>27.57</v>
-      </c>
-      <c r="I40">
-        <v>27.57</v>
-      </c>
-      <c r="J40">
-        <v>27.57</v>
-      </c>
-      <c r="K40">
-        <v>27.57</v>
-      </c>
-      <c r="L40">
-        <v>27.57</v>
-      </c>
-      <c r="M40">
-        <v>27.57</v>
+      <c r="C40" s="1">
+        <v>27.574000000000002</v>
+      </c>
+      <c r="D40" s="1">
+        <v>27.565000000000001</v>
+      </c>
+      <c r="E40" s="1">
+        <v>27.567</v>
+      </c>
+      <c r="F40" s="1">
+        <v>27.574000000000002</v>
+      </c>
+      <c r="G40" s="1">
+        <v>27.568000000000001</v>
+      </c>
+      <c r="H40" s="1">
+        <v>27.567</v>
+      </c>
+      <c r="I40" s="1">
+        <v>27.573</v>
+      </c>
+      <c r="J40" s="1">
+        <v>27.565000000000001</v>
+      </c>
+      <c r="K40" s="1">
+        <v>27.567</v>
+      </c>
+      <c r="L40" s="1">
+        <v>27.573</v>
+      </c>
+      <c r="M40" s="1">
+        <v>27.574000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B41">
         <v>480</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
+        <v>27.651</v>
+      </c>
+      <c r="D41" s="1">
+        <v>27.638999999999999</v>
+      </c>
+      <c r="E41" s="1">
+        <v>27.643999999999998</v>
+      </c>
+      <c r="F41" s="1">
+        <v>27.651</v>
+      </c>
+      <c r="G41" s="1">
+        <v>27.646999999999998</v>
+      </c>
+      <c r="H41" s="1">
         <v>27.65</v>
       </c>
-      <c r="D41">
-        <v>27.64</v>
-      </c>
-      <c r="E41">
-        <v>27.64</v>
-      </c>
-      <c r="F41">
+      <c r="I41" s="1">
+        <v>27.649000000000001</v>
+      </c>
+      <c r="J41" s="1">
+        <v>27.646000000000001</v>
+      </c>
+      <c r="K41" s="1">
+        <v>27.643000000000001</v>
+      </c>
+      <c r="L41" s="1">
         <v>27.65</v>
       </c>
-      <c r="G41">
-        <v>27.65</v>
-      </c>
-      <c r="H41">
-        <v>27.65</v>
-      </c>
-      <c r="I41">
-        <v>27.65</v>
-      </c>
-      <c r="J41">
-        <v>27.65</v>
-      </c>
-      <c r="K41">
-        <v>27.64</v>
-      </c>
-      <c r="L41">
-        <v>27.65</v>
-      </c>
-      <c r="M41">
-        <v>27.64</v>
+      <c r="M41" s="1">
+        <v>27.643999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B42">
         <v>506</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
+        <v>28.991</v>
+      </c>
+      <c r="D42" s="1">
+        <v>28.98</v>
+      </c>
+      <c r="E42" s="1">
+        <v>28.988</v>
+      </c>
+      <c r="F42" s="1">
+        <v>28.991</v>
+      </c>
+      <c r="G42" s="1">
+        <v>28.988</v>
+      </c>
+      <c r="H42" s="1">
+        <v>28.992000000000001</v>
+      </c>
+      <c r="I42" s="1">
+        <v>28.989000000000001</v>
+      </c>
+      <c r="J42" s="1">
         <v>28.99</v>
       </c>
-      <c r="D42">
-        <v>28.98</v>
-      </c>
-      <c r="E42">
+      <c r="K42" s="1">
+        <v>28.984999999999999</v>
+      </c>
+      <c r="L42" s="1">
         <v>28.99</v>
       </c>
-      <c r="F42">
-        <v>28.99</v>
-      </c>
-      <c r="G42">
-        <v>28.99</v>
-      </c>
-      <c r="H42">
-        <v>28.99</v>
-      </c>
-      <c r="I42">
-        <v>28.99</v>
-      </c>
-      <c r="J42">
-        <v>28.99</v>
-      </c>
-      <c r="K42">
-        <v>28.99</v>
-      </c>
-      <c r="L42">
-        <v>28.99</v>
-      </c>
-      <c r="M42">
-        <v>28.99</v>
+      <c r="M42" s="1">
+        <v>28.992000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43">
         <v>502</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
+        <v>29.100999999999999</v>
+      </c>
+      <c r="D43" s="1">
+        <v>29.097999999999999</v>
+      </c>
+      <c r="E43" s="1">
         <v>29.1</v>
       </c>
-      <c r="D43">
+      <c r="F43" s="1">
+        <v>29.100999999999999</v>
+      </c>
+      <c r="G43" s="1">
+        <v>29.099</v>
+      </c>
+      <c r="H43" s="1">
+        <v>29.105</v>
+      </c>
+      <c r="I43" s="1">
+        <v>29.103000000000002</v>
+      </c>
+      <c r="J43" s="1">
+        <v>29.102</v>
+      </c>
+      <c r="K43" s="1">
+        <v>29.097999999999999</v>
+      </c>
+      <c r="L43" s="1">
         <v>29.1</v>
       </c>
-      <c r="E43">
-        <v>29.1</v>
-      </c>
-      <c r="F43">
-        <v>29.1</v>
-      </c>
-      <c r="G43">
-        <v>29.1</v>
-      </c>
-      <c r="H43">
-        <v>29.11</v>
-      </c>
-      <c r="I43">
-        <v>29.1</v>
-      </c>
-      <c r="J43">
-        <v>29.1</v>
-      </c>
-      <c r="K43">
-        <v>29.1</v>
-      </c>
-      <c r="L43">
-        <v>29.1</v>
-      </c>
-      <c r="M43">
+      <c r="M43" s="1">
         <v>29.1</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44">
         <v>528</v>
       </c>
-      <c r="C44">
-        <v>29.46</v>
-      </c>
-      <c r="D44">
-        <v>29.45</v>
-      </c>
-      <c r="E44">
-        <v>29.46</v>
-      </c>
-      <c r="F44">
-        <v>29.46</v>
-      </c>
-      <c r="G44">
-        <v>29.46</v>
-      </c>
-      <c r="H44">
-        <v>29.46</v>
-      </c>
-      <c r="I44">
-        <v>29.46</v>
-      </c>
-      <c r="J44">
-        <v>29.46</v>
-      </c>
-      <c r="K44">
-        <v>29.46</v>
-      </c>
-      <c r="L44">
-        <v>29.46</v>
-      </c>
-      <c r="M44">
-        <v>29.46</v>
+      <c r="C44" s="1">
+        <v>29.457999999999998</v>
+      </c>
+      <c r="D44" s="1">
+        <v>29.452999999999999</v>
+      </c>
+      <c r="E44" s="1">
+        <v>29.459</v>
+      </c>
+      <c r="F44" s="1">
+        <v>29.457999999999998</v>
+      </c>
+      <c r="G44" s="1">
+        <v>29.457999999999998</v>
+      </c>
+      <c r="H44" s="1">
+        <v>29.460999999999999</v>
+      </c>
+      <c r="I44" s="1">
+        <v>29.457999999999998</v>
+      </c>
+      <c r="J44" s="1">
+        <v>29.454999999999998</v>
+      </c>
+      <c r="K44" s="1">
+        <v>29.457999999999998</v>
+      </c>
+      <c r="L44" s="1">
+        <v>29.457000000000001</v>
+      </c>
+      <c r="M44" s="1">
+        <v>29.460999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B45">
         <v>530</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
+        <v>29.552</v>
+      </c>
+      <c r="D45" s="1">
+        <v>29.545999999999999</v>
+      </c>
+      <c r="E45" s="1">
+        <v>29.553000000000001</v>
+      </c>
+      <c r="F45" s="1">
+        <v>29.552</v>
+      </c>
+      <c r="G45" s="1">
+        <v>29.552</v>
+      </c>
+      <c r="H45" s="1">
+        <v>29.553999999999998</v>
+      </c>
+      <c r="I45" s="1">
+        <v>29.552</v>
+      </c>
+      <c r="J45" s="1">
+        <v>29.553000000000001</v>
+      </c>
+      <c r="K45" s="1">
+        <v>29.548999999999999</v>
+      </c>
+      <c r="L45" s="1">
         <v>29.55</v>
       </c>
-      <c r="D45">
-        <v>29.55</v>
-      </c>
-      <c r="E45">
-        <v>29.55</v>
-      </c>
-      <c r="F45">
-        <v>29.55</v>
-      </c>
-      <c r="G45">
-        <v>29.55</v>
-      </c>
-      <c r="H45">
-        <v>29.55</v>
-      </c>
-      <c r="I45">
-        <v>29.55</v>
-      </c>
-      <c r="J45">
-        <v>29.55</v>
-      </c>
-      <c r="K45">
-        <v>29.55</v>
-      </c>
-      <c r="L45">
-        <v>29.55</v>
-      </c>
-      <c r="M45">
-        <v>29.55</v>
+      <c r="M45" s="1">
+        <v>29.553999999999998</v>
       </c>
     </row>
   </sheetData>
